--- a/Code/Results/Cases/Case_1_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9628440950900928</v>
+        <v>1.035182332627914</v>
       </c>
       <c r="D2">
-        <v>1.028670707554657</v>
+        <v>1.029357660681784</v>
       </c>
       <c r="E2">
-        <v>0.9820748439566945</v>
+        <v>1.04324360465346</v>
       </c>
       <c r="F2">
-        <v>0.9897961021145291</v>
+        <v>1.051913823851382</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045481561974193</v>
+        <v>1.03134161344135</v>
       </c>
       <c r="J2">
-        <v>0.9861959172447146</v>
+        <v>1.040297505370909</v>
       </c>
       <c r="K2">
-        <v>1.039744557349333</v>
+        <v>1.0321718053833</v>
       </c>
       <c r="L2">
-        <v>0.993789685279063</v>
+        <v>1.04601801888951</v>
       </c>
       <c r="M2">
-        <v>1.001399448004384</v>
+        <v>1.054664007687564</v>
       </c>
       <c r="N2">
-        <v>0.9976693154208957</v>
+        <v>1.017106412322584</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9719838926793853</v>
+        <v>1.036942325711251</v>
       </c>
       <c r="D3">
-        <v>1.03065205379549</v>
+        <v>1.029750866589934</v>
       </c>
       <c r="E3">
-        <v>0.9899015294508563</v>
+        <v>1.044799191421415</v>
       </c>
       <c r="F3">
-        <v>0.9979617101967764</v>
+        <v>1.053534451870518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046213045559596</v>
+        <v>1.031410473938938</v>
       </c>
       <c r="J3">
-        <v>0.9932685775993289</v>
+        <v>1.041696850780066</v>
       </c>
       <c r="K3">
-        <v>1.040907200685621</v>
+        <v>1.032374257636609</v>
       </c>
       <c r="L3">
-        <v>1.00066527385908</v>
+        <v>1.047382654709337</v>
       </c>
       <c r="M3">
-        <v>1.008620737928404</v>
+        <v>1.056095302517026</v>
       </c>
       <c r="N3">
-        <v>1.000230238866538</v>
+        <v>1.017594728209205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9776860635132643</v>
+        <v>1.038078744999993</v>
       </c>
       <c r="D4">
-        <v>1.031905208706524</v>
+        <v>1.030004897780531</v>
       </c>
       <c r="E4">
-        <v>0.9947920169105535</v>
+        <v>1.04580363544453</v>
       </c>
       <c r="F4">
-        <v>1.003063746283779</v>
+        <v>1.054580688442747</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046659523928719</v>
+        <v>1.031453268851647</v>
       </c>
       <c r="J4">
-        <v>0.9976783133441337</v>
+        <v>1.042599666925593</v>
       </c>
       <c r="K4">
-        <v>1.041633231512304</v>
+        <v>1.032504118621964</v>
       </c>
       <c r="L4">
-        <v>1.004953706779263</v>
+        <v>1.048263057974017</v>
       </c>
       <c r="M4">
-        <v>1.013125334695582</v>
+        <v>1.057018555124507</v>
       </c>
       <c r="N4">
-        <v>1.001824362999224</v>
+        <v>1.017909171142915</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9800360697646968</v>
+        <v>1.038555932402221</v>
       </c>
       <c r="D5">
-        <v>1.032425336277309</v>
+        <v>1.030111595620222</v>
       </c>
       <c r="E5">
-        <v>0.9968091386661007</v>
+        <v>1.046225406724308</v>
       </c>
       <c r="F5">
-        <v>1.005168025930777</v>
+        <v>1.055019959229197</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046840998149638</v>
+        <v>1.031470837888524</v>
       </c>
       <c r="J5">
-        <v>0.9994948997948844</v>
+        <v>1.042978586886911</v>
       </c>
       <c r="K5">
-        <v>1.041932357670517</v>
+        <v>1.032558438855329</v>
       </c>
       <c r="L5">
-        <v>1.00672065645626</v>
+        <v>1.048632566056704</v>
       </c>
       <c r="M5">
-        <v>1.014981429646661</v>
+        <v>1.057406009307275</v>
       </c>
       <c r="N5">
-        <v>1.002480386650793</v>
+        <v>1.018041000429604</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9804279750250643</v>
+        <v>1.038636021659413</v>
       </c>
       <c r="D6">
-        <v>1.032512281241387</v>
+        <v>1.030129504938905</v>
       </c>
       <c r="E6">
-        <v>0.9971456205163661</v>
+        <v>1.046296195171217</v>
       </c>
       <c r="F6">
-        <v>1.005519039945923</v>
+        <v>1.055093681815884</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046871108857053</v>
+        <v>1.03147376306346</v>
       </c>
       <c r="J6">
-        <v>0.9997977992764582</v>
+        <v>1.043042172956733</v>
       </c>
       <c r="K6">
-        <v>1.041982229999404</v>
+        <v>1.032567543415666</v>
       </c>
       <c r="L6">
-        <v>1.007015297917502</v>
+        <v>1.048694572427501</v>
       </c>
       <c r="M6">
-        <v>1.015290939520679</v>
+        <v>1.057471024936542</v>
       </c>
       <c r="N6">
-        <v>1.002589731542102</v>
+        <v>1.018063113997706</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9777176454248306</v>
+        <v>1.038085123394628</v>
       </c>
       <c r="D7">
-        <v>1.031912184718691</v>
+        <v>1.030006323864434</v>
       </c>
       <c r="E7">
-        <v>0.9948191189272859</v>
+        <v>1.045809273109797</v>
       </c>
       <c r="F7">
-        <v>1.003092019791305</v>
+        <v>1.054586560212371</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046661973007079</v>
+        <v>1.031453505267842</v>
       </c>
       <c r="J7">
-        <v>0.9977027297941328</v>
+        <v>1.042604732508675</v>
       </c>
       <c r="K7">
-        <v>1.041637252165938</v>
+        <v>1.032504845526229</v>
       </c>
       <c r="L7">
-        <v>1.004977454799991</v>
+        <v>1.048267997754737</v>
       </c>
       <c r="M7">
-        <v>1.013150280586833</v>
+        <v>1.057023734967981</v>
       </c>
       <c r="N7">
-        <v>1.001833183249805</v>
+        <v>1.017910934071522</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9659790632245048</v>
+        <v>1.035777639190834</v>
       </c>
       <c r="D8">
-        <v>1.029346438987325</v>
+        <v>1.029490628382574</v>
       </c>
       <c r="E8">
-        <v>0.9847576953751672</v>
+        <v>1.04376976944836</v>
       </c>
       <c r="F8">
-        <v>0.992595150688599</v>
+        <v>1.052462030520538</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045734455272931</v>
+        <v>1.031365250087661</v>
       </c>
       <c r="J8">
-        <v>0.9886223730644331</v>
+        <v>1.040770977104939</v>
       </c>
       <c r="K8">
-        <v>1.040143041880415</v>
+        <v>1.03224046058015</v>
       </c>
       <c r="L8">
-        <v>0.9961481699905148</v>
+        <v>1.046479750327819</v>
       </c>
       <c r="M8">
-        <v>1.003876368495206</v>
+        <v>1.055148325613929</v>
       </c>
       <c r="N8">
-        <v>0.9985484195622892</v>
+        <v>1.017271760069284</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9434885138644196</v>
+        <v>1.03169241042364</v>
       </c>
       <c r="D9">
-        <v>1.024592627120058</v>
+        <v>1.028578903965162</v>
       </c>
       <c r="E9">
-        <v>0.9655525163237346</v>
+        <v>1.040159105992702</v>
       </c>
       <c r="F9">
-        <v>0.9725592091269378</v>
+        <v>1.048699284259999</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043884197745026</v>
+        <v>1.031196234843219</v>
       </c>
       <c r="J9">
-        <v>0.971207770957099</v>
+        <v>1.037518826077261</v>
       </c>
       <c r="K9">
-        <v>1.037298920272707</v>
+        <v>1.031765881887206</v>
       </c>
       <c r="L9">
-        <v>0.9792303507756944</v>
+        <v>1.04330817565782</v>
       </c>
       <c r="M9">
-        <v>0.98611375745414</v>
+        <v>1.051820984343072</v>
       </c>
       <c r="N9">
-        <v>0.9922302634532496</v>
+        <v>1.016133564133688</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9269785242869132</v>
+        <v>1.028955126326753</v>
       </c>
       <c r="D10">
-        <v>1.021248885586085</v>
+        <v>1.027969141535362</v>
       </c>
       <c r="E10">
-        <v>0.9515201745899473</v>
+        <v>1.03773996518119</v>
       </c>
       <c r="F10">
-        <v>0.957923850826179</v>
+        <v>1.046177226014938</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042488702824666</v>
+        <v>1.031074480267779</v>
       </c>
       <c r="J10">
-        <v>0.9584219576128354</v>
+        <v>1.035335991767315</v>
       </c>
       <c r="K10">
-        <v>1.035244798472565</v>
+        <v>1.031443680964606</v>
       </c>
       <c r="L10">
-        <v>0.9668236209565656</v>
+        <v>1.041179358562246</v>
       </c>
       <c r="M10">
-        <v>0.9730967613576279</v>
+        <v>1.049586852339097</v>
       </c>
       <c r="N10">
-        <v>0.9875832415935781</v>
+        <v>1.015366531946505</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9193847517411468</v>
+        <v>1.027766372494171</v>
       </c>
       <c r="D11">
-        <v>1.019754673204539</v>
+        <v>1.027704660988068</v>
       </c>
       <c r="E11">
-        <v>0.9450862333419008</v>
+        <v>1.036689431373512</v>
       </c>
       <c r="F11">
-        <v>0.9512153635706683</v>
+        <v>1.045081762372516</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041841326693053</v>
+        <v>1.031019604969636</v>
       </c>
       <c r="J11">
-        <v>0.952543336386437</v>
+        <v>1.034387144089246</v>
       </c>
       <c r="K11">
-        <v>1.034313419449219</v>
+        <v>1.031302791644956</v>
       </c>
       <c r="L11">
-        <v>0.9611237681507605</v>
+        <v>1.040253980972282</v>
       </c>
       <c r="M11">
-        <v>0.9671199074682592</v>
+        <v>1.048615521645865</v>
       </c>
       <c r="N11">
-        <v>0.9854458753605454</v>
+        <v>1.015032391157962</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9164882800281052</v>
+        <v>1.027324273891058</v>
       </c>
       <c r="D12">
-        <v>1.019192185443439</v>
+        <v>1.027606354783216</v>
       </c>
       <c r="E12">
-        <v>0.9426356601335371</v>
+        <v>1.036298746798029</v>
       </c>
       <c r="F12">
-        <v>0.9486606123579558</v>
+        <v>1.044674333623874</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041593895344315</v>
+        <v>1.030998897942262</v>
       </c>
       <c r="J12">
-        <v>0.9503016803106807</v>
+        <v>1.034034135010395</v>
       </c>
       <c r="K12">
-        <v>1.033960704464808</v>
+        <v>1.031250253087389</v>
       </c>
       <c r="L12">
-        <v>0.9589510611685493</v>
+        <v>1.03990970255773</v>
       </c>
       <c r="M12">
-        <v>0.9648422328221881</v>
+        <v>1.048254121288018</v>
       </c>
       <c r="N12">
-        <v>0.9846308488486871</v>
+        <v>1.01490796956697</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9171131767702595</v>
+        <v>1.027419130380977</v>
       </c>
       <c r="D13">
-        <v>1.019313188141775</v>
+        <v>1.027627444782092</v>
       </c>
       <c r="E13">
-        <v>0.9431641904783979</v>
+        <v>1.036382571445489</v>
       </c>
       <c r="F13">
-        <v>0.9492115919976941</v>
+        <v>1.044761752456881</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041647294323776</v>
+        <v>1.031003354329884</v>
       </c>
       <c r="J13">
-        <v>0.9507852719676874</v>
+        <v>1.034109882441538</v>
       </c>
       <c r="K13">
-        <v>1.034036677184864</v>
+        <v>1.031261532100579</v>
       </c>
       <c r="L13">
-        <v>0.9594197413537473</v>
+        <v>1.039983576638822</v>
       </c>
       <c r="M13">
-        <v>0.965333525800316</v>
+        <v>1.04833167048139</v>
       </c>
       <c r="N13">
-        <v>0.9848066721044677</v>
+        <v>1.01493467238154</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9191469330761366</v>
+        <v>1.027729839656846</v>
       </c>
       <c r="D14">
-        <v>1.019708333434761</v>
+        <v>1.027696536313468</v>
       </c>
       <c r="E14">
-        <v>0.944884951878356</v>
+        <v>1.036657146926726</v>
       </c>
       <c r="F14">
-        <v>0.9510055167403604</v>
+        <v>1.045048094975385</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041821019216281</v>
+        <v>1.031017899928756</v>
       </c>
       <c r="J14">
-        <v>0.9523592681305101</v>
+        <v>1.034357975852198</v>
       </c>
       <c r="K14">
-        <v>1.03428440475932</v>
+        <v>1.031298452990928</v>
       </c>
       <c r="L14">
-        <v>0.9609453450148562</v>
+        <v>1.040225534148502</v>
       </c>
       <c r="M14">
-        <v>0.9669328510718824</v>
+        <v>1.048585660597373</v>
       </c>
       <c r="N14">
-        <v>0.9853789506382381</v>
+        <v>1.015022112717112</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9203896542443945</v>
+        <v>1.027921205470839</v>
       </c>
       <c r="D15">
-        <v>1.019950788903114</v>
+        <v>1.02773909712811</v>
       </c>
       <c r="E15">
-        <v>0.9459368929837471</v>
+        <v>1.03682625929189</v>
       </c>
       <c r="F15">
-        <v>0.9521022388386522</v>
+        <v>1.045224450073966</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041927117500616</v>
+        <v>1.031026819027287</v>
       </c>
       <c r="J15">
-        <v>0.9533211430801009</v>
+        <v>1.034510759126319</v>
       </c>
       <c r="K15">
-        <v>1.034436127071565</v>
+        <v>1.031321173887804</v>
       </c>
       <c r="L15">
-        <v>0.9618777528921099</v>
+        <v>1.04037453861452</v>
       </c>
       <c r="M15">
-        <v>0.9679104007567048</v>
+        <v>1.048742071732297</v>
       </c>
       <c r="N15">
-        <v>0.9857286761214199</v>
+        <v>1.015075946794147</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9274723980499658</v>
+        <v>1.029033944912591</v>
       </c>
       <c r="D16">
-        <v>1.021347033611744</v>
+        <v>1.027986684869852</v>
       </c>
       <c r="E16">
-        <v>0.9519390698431542</v>
+        <v>1.037809620593889</v>
       </c>
       <c r="F16">
-        <v>0.9583606689421796</v>
+        <v>1.04624985554159</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042530718836992</v>
+        <v>1.031078076748075</v>
       </c>
       <c r="J16">
-        <v>0.9588043512456652</v>
+        <v>1.035398885230365</v>
       </c>
       <c r="K16">
-        <v>1.035305690160993</v>
+        <v>1.031453002412254</v>
       </c>
       <c r="L16">
-        <v>0.9671944866400023</v>
+        <v>1.041240696149573</v>
       </c>
       <c r="M16">
-        <v>0.9734857288337415</v>
+        <v>1.049651232271605</v>
       </c>
       <c r="N16">
-        <v>0.9877222669328979</v>
+        <v>1.015388665003065</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9317902997563684</v>
+        <v>1.02973098954622</v>
       </c>
       <c r="D17">
-        <v>1.02221011936086</v>
+        <v>1.02814187063219</v>
       </c>
       <c r="E17">
-        <v>0.9556037502151989</v>
+        <v>1.038425635902303</v>
       </c>
       <c r="F17">
-        <v>0.9621823742871233</v>
+        <v>1.046892145899511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042897479488466</v>
+        <v>1.031109652355675</v>
       </c>
       <c r="J17">
-        <v>0.9621478662243366</v>
+        <v>1.035954991921671</v>
       </c>
       <c r="K17">
-        <v>1.035839617762146</v>
+        <v>1.031535327386651</v>
       </c>
       <c r="L17">
-        <v>0.9704377168190265</v>
+        <v>1.041783044570342</v>
       </c>
       <c r="M17">
-        <v>0.9768876482937174</v>
+        <v>1.050220461233256</v>
       </c>
       <c r="N17">
-        <v>0.9889377812833128</v>
+        <v>1.015584283209622</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9342666261539293</v>
+        <v>1.030137228203359</v>
       </c>
       <c r="D18">
-        <v>1.022709108889289</v>
+        <v>1.028232344425954</v>
       </c>
       <c r="E18">
-        <v>0.9577073015670616</v>
+        <v>1.038784655847776</v>
       </c>
       <c r="F18">
-        <v>0.9643762329209937</v>
+        <v>1.04726645634995</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043107281810399</v>
+        <v>1.031127861982604</v>
       </c>
       <c r="J18">
-        <v>0.9640655658610182</v>
+        <v>1.03627900678409</v>
       </c>
       <c r="K18">
-        <v>1.036147037903588</v>
+        <v>1.031583213531832</v>
       </c>
       <c r="L18">
-        <v>0.9722983058956313</v>
+        <v>1.04209904215984</v>
       </c>
       <c r="M18">
-        <v>0.9788395799283769</v>
+        <v>1.050552103927997</v>
       </c>
       <c r="N18">
-        <v>0.989634869038067</v>
+        <v>1.015698190310197</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9351040716589617</v>
+        <v>1.030275688688082</v>
       </c>
       <c r="D19">
-        <v>1.022878513434692</v>
+        <v>1.028263186248177</v>
       </c>
       <c r="E19">
-        <v>0.958418982975948</v>
+        <v>1.038907023382601</v>
       </c>
       <c r="F19">
-        <v>0.9651184942320313</v>
+        <v>1.047394031574265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043178133116242</v>
+        <v>1.031134035737671</v>
       </c>
       <c r="J19">
-        <v>0.964714118853327</v>
+        <v>1.036389428066242</v>
       </c>
       <c r="K19">
-        <v>1.036251192618324</v>
+        <v>1.03159951896064</v>
       </c>
       <c r="L19">
-        <v>0.9729276109007233</v>
+        <v>1.042206731040914</v>
       </c>
       <c r="M19">
-        <v>0.9794998282464248</v>
+        <v>1.050665121647611</v>
       </c>
       <c r="N19">
-        <v>0.9898706025988447</v>
+        <v>1.015736996976777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9313314575369982</v>
+        <v>1.029656238104468</v>
       </c>
       <c r="D20">
-        <v>1.022117980432619</v>
+        <v>1.028125225152969</v>
       </c>
       <c r="E20">
-        <v>0.9552141271117551</v>
+        <v>1.038359573530083</v>
       </c>
       <c r="F20">
-        <v>0.9617760377824923</v>
+        <v>1.046823268114908</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04285855925513</v>
+        <v>1.031106286096164</v>
       </c>
       <c r="J20">
-        <v>0.9617925461146212</v>
+        <v>1.035895363525731</v>
       </c>
       <c r="K20">
-        <v>1.035782750307629</v>
+        <v>1.031526508410133</v>
       </c>
       <c r="L20">
-        <v>0.9700930108790647</v>
+        <v>1.041724891505313</v>
       </c>
       <c r="M20">
-        <v>0.9765260435858798</v>
+        <v>1.05015942764409</v>
       </c>
       <c r="N20">
-        <v>0.9888086144124015</v>
+        <v>1.015563315295731</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9185502160313059</v>
+        <v>1.027638358639753</v>
       </c>
       <c r="D21">
-        <v>1.019592183733119</v>
+        <v>1.027676192402007</v>
       </c>
       <c r="E21">
-        <v>0.9443799692889721</v>
+        <v>1.036576304368801</v>
       </c>
       <c r="F21">
-        <v>0.9504790516867013</v>
+        <v>1.044963788845046</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041770058269935</v>
+        <v>1.031013625555041</v>
       </c>
       <c r="J21">
-        <v>0.9518974284640948</v>
+        <v>1.034284934231095</v>
       </c>
       <c r="K21">
-        <v>1.034211645858847</v>
+        <v>1.031287586391663</v>
       </c>
       <c r="L21">
-        <v>0.9604976822601023</v>
+        <v>1.040154299036972</v>
       </c>
       <c r="M21">
-        <v>0.966463537906562</v>
+        <v>1.048510883645306</v>
       </c>
       <c r="N21">
-        <v>0.9852110324466138</v>
+        <v>1.014996372225778</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9100697228400498</v>
+        <v>1.026366489979174</v>
       </c>
       <c r="D22">
-        <v>1.017960572255413</v>
+        <v>1.027393484345619</v>
       </c>
       <c r="E22">
-        <v>0.9372122978064339</v>
+        <v>1.035452368410141</v>
       </c>
       <c r="F22">
-        <v>0.943007543713804</v>
+        <v>1.043791616879112</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041045052295666</v>
+        <v>1.030953492124369</v>
       </c>
       <c r="J22">
-        <v>0.9453356722862664</v>
+        <v>1.033269118573119</v>
       </c>
       <c r="K22">
-        <v>1.033184430363074</v>
+        <v>1.031136175051535</v>
       </c>
       <c r="L22">
-        <v>0.9541393802079419</v>
+        <v>1.039163604980436</v>
       </c>
       <c r="M22">
-        <v>0.9597993850796631</v>
+        <v>1.047470872130625</v>
       </c>
       <c r="N22">
-        <v>0.9828254446040264</v>
+        <v>1.01463813504079</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9146110007842646</v>
+        <v>1.027041036019412</v>
       </c>
       <c r="D23">
-        <v>1.018829841069019</v>
+        <v>1.027543389189893</v>
       </c>
       <c r="E23">
-        <v>0.9410484341708495</v>
+        <v>1.036048451147053</v>
       </c>
       <c r="F23">
-        <v>0.9470060350724265</v>
+        <v>1.044413300826365</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041433430441043</v>
+        <v>1.030985547694333</v>
       </c>
       <c r="J23">
-        <v>0.9488490153947182</v>
+        <v>1.033807936813946</v>
       </c>
       <c r="K23">
-        <v>1.033732887607022</v>
+        <v>1.031216553865276</v>
       </c>
       <c r="L23">
-        <v>0.9575433127645849</v>
+        <v>1.039689098454886</v>
       </c>
       <c r="M23">
-        <v>0.9633666646573341</v>
+        <v>1.048022538809366</v>
       </c>
       <c r="N23">
-        <v>0.9841027021418582</v>
+        <v>1.014828213436907</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9315389184346702</v>
+        <v>1.029690016100355</v>
       </c>
       <c r="D24">
-        <v>1.022159627713199</v>
+        <v>1.028132746663079</v>
       </c>
       <c r="E24">
-        <v>0.9553902855615025</v>
+        <v>1.038389425172652</v>
       </c>
       <c r="F24">
-        <v>0.9619597522494975</v>
+        <v>1.04685439203021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042876158338441</v>
+        <v>1.031107807806412</v>
       </c>
       <c r="J24">
-        <v>0.9619531999713099</v>
+        <v>1.035922308121047</v>
       </c>
       <c r="K24">
-        <v>1.035808458623432</v>
+        <v>1.031530493736001</v>
       </c>
       <c r="L24">
-        <v>0.9702488643985605</v>
+        <v>1.041751169438359</v>
       </c>
       <c r="M24">
-        <v>0.97668953668395</v>
+        <v>1.050187007266663</v>
       </c>
       <c r="N24">
-        <v>0.9888670159694539</v>
+        <v>1.015572790391942</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9495450739867378</v>
+        <v>1.032750903629794</v>
       </c>
       <c r="D25">
-        <v>1.025850886403038</v>
+        <v>1.028814954861362</v>
       </c>
       <c r="E25">
-        <v>0.9707145511626414</v>
+        <v>1.041094615144331</v>
       </c>
       <c r="F25">
-        <v>0.9779441525616372</v>
+        <v>1.049674379042965</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044389696449592</v>
+        <v>1.031241529135349</v>
       </c>
       <c r="J25">
-        <v>0.9758985041491551</v>
+        <v>1.03836212856619</v>
       </c>
       <c r="K25">
-        <v>1.03806072994541</v>
+        <v>1.031889599187807</v>
       </c>
       <c r="L25">
-        <v>0.9837851608448481</v>
+        <v>1.044130597398971</v>
       </c>
       <c r="M25">
-        <v>0.9908947868802738</v>
+        <v>1.052683934115078</v>
       </c>
       <c r="N25">
-        <v>0.9939338225830241</v>
+        <v>1.016429248683781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035182332627914</v>
+        <v>0.9628440950900924</v>
       </c>
       <c r="D2">
-        <v>1.029357660681784</v>
+        <v>1.028670707554658</v>
       </c>
       <c r="E2">
-        <v>1.04324360465346</v>
+        <v>0.9820748439566941</v>
       </c>
       <c r="F2">
-        <v>1.051913823851382</v>
+        <v>0.9897961021145288</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03134161344135</v>
+        <v>1.045481561974193</v>
       </c>
       <c r="J2">
-        <v>1.040297505370909</v>
+        <v>0.9861959172447141</v>
       </c>
       <c r="K2">
-        <v>1.0321718053833</v>
+        <v>1.039744557349333</v>
       </c>
       <c r="L2">
-        <v>1.04601801888951</v>
+        <v>0.9937896852790626</v>
       </c>
       <c r="M2">
-        <v>1.054664007687564</v>
+        <v>1.001399448004384</v>
       </c>
       <c r="N2">
-        <v>1.017106412322584</v>
+        <v>0.9976693154208954</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036942325711251</v>
+        <v>0.9719838926793848</v>
       </c>
       <c r="D3">
-        <v>1.029750866589934</v>
+        <v>1.03065205379549</v>
       </c>
       <c r="E3">
-        <v>1.044799191421415</v>
+        <v>0.9899015294508556</v>
       </c>
       <c r="F3">
-        <v>1.053534451870518</v>
+        <v>0.9979617101967757</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031410473938938</v>
+        <v>1.046213045559596</v>
       </c>
       <c r="J3">
-        <v>1.041696850780066</v>
+        <v>0.9932685775993283</v>
       </c>
       <c r="K3">
-        <v>1.032374257636609</v>
+        <v>1.040907200685621</v>
       </c>
       <c r="L3">
-        <v>1.047382654709337</v>
+        <v>1.00066527385908</v>
       </c>
       <c r="M3">
-        <v>1.056095302517026</v>
+        <v>1.008620737928403</v>
       </c>
       <c r="N3">
-        <v>1.017594728209205</v>
+        <v>1.000230238866538</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038078744999993</v>
+        <v>0.9776860635132639</v>
       </c>
       <c r="D4">
-        <v>1.030004897780531</v>
+        <v>1.031905208706524</v>
       </c>
       <c r="E4">
-        <v>1.04580363544453</v>
+        <v>0.9947920169105532</v>
       </c>
       <c r="F4">
-        <v>1.054580688442747</v>
+        <v>1.003063746283779</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031453268851647</v>
+        <v>1.046659523928718</v>
       </c>
       <c r="J4">
-        <v>1.042599666925593</v>
+        <v>0.9976783133441333</v>
       </c>
       <c r="K4">
-        <v>1.032504118621964</v>
+        <v>1.041633231512304</v>
       </c>
       <c r="L4">
-        <v>1.048263057974017</v>
+        <v>1.004953706779263</v>
       </c>
       <c r="M4">
-        <v>1.057018555124507</v>
+        <v>1.013125334695581</v>
       </c>
       <c r="N4">
-        <v>1.017909171142915</v>
+        <v>1.001824362999224</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038555932402221</v>
+        <v>0.980036069764697</v>
       </c>
       <c r="D5">
-        <v>1.030111595620222</v>
+        <v>1.032425336277309</v>
       </c>
       <c r="E5">
-        <v>1.046225406724308</v>
+        <v>0.9968091386661008</v>
       </c>
       <c r="F5">
-        <v>1.055019959229197</v>
+        <v>1.005168025930777</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031470837888524</v>
+        <v>1.046840998149638</v>
       </c>
       <c r="J5">
-        <v>1.042978586886911</v>
+        <v>0.9994948997948845</v>
       </c>
       <c r="K5">
-        <v>1.032558438855329</v>
+        <v>1.041932357670517</v>
       </c>
       <c r="L5">
-        <v>1.048632566056704</v>
+        <v>1.00672065645626</v>
       </c>
       <c r="M5">
-        <v>1.057406009307275</v>
+        <v>1.014981429646661</v>
       </c>
       <c r="N5">
-        <v>1.018041000429604</v>
+        <v>1.002480386650793</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038636021659413</v>
+        <v>0.9804279750250617</v>
       </c>
       <c r="D6">
-        <v>1.030129504938905</v>
+        <v>1.032512281241387</v>
       </c>
       <c r="E6">
-        <v>1.046296195171217</v>
+        <v>0.9971456205163637</v>
       </c>
       <c r="F6">
-        <v>1.055093681815884</v>
+        <v>1.005519039945921</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03147376306346</v>
+        <v>1.046871108857053</v>
       </c>
       <c r="J6">
-        <v>1.043042172956733</v>
+        <v>0.9997977992764556</v>
       </c>
       <c r="K6">
-        <v>1.032567543415666</v>
+        <v>1.041982229999403</v>
       </c>
       <c r="L6">
-        <v>1.048694572427501</v>
+        <v>1.0070152979175</v>
       </c>
       <c r="M6">
-        <v>1.057471024936542</v>
+        <v>1.015290939520677</v>
       </c>
       <c r="N6">
-        <v>1.018063113997706</v>
+        <v>1.002589731542101</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038085123394628</v>
+        <v>0.9777176454248301</v>
       </c>
       <c r="D7">
-        <v>1.030006323864434</v>
+        <v>1.031912184718691</v>
       </c>
       <c r="E7">
-        <v>1.045809273109797</v>
+        <v>0.9948191189272855</v>
       </c>
       <c r="F7">
-        <v>1.054586560212371</v>
+        <v>1.003092019791305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031453505267842</v>
+        <v>1.046661973007079</v>
       </c>
       <c r="J7">
-        <v>1.042604732508675</v>
+        <v>0.9977027297941322</v>
       </c>
       <c r="K7">
-        <v>1.032504845526229</v>
+        <v>1.041637252165938</v>
       </c>
       <c r="L7">
-        <v>1.048267997754737</v>
+        <v>1.004977454799991</v>
       </c>
       <c r="M7">
-        <v>1.057023734967981</v>
+        <v>1.013150280586833</v>
       </c>
       <c r="N7">
-        <v>1.017910934071522</v>
+        <v>1.001833183249805</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035777639190834</v>
+        <v>0.9659790632245041</v>
       </c>
       <c r="D8">
-        <v>1.029490628382574</v>
+        <v>1.029346438987325</v>
       </c>
       <c r="E8">
-        <v>1.04376976944836</v>
+        <v>0.9847576953751668</v>
       </c>
       <c r="F8">
-        <v>1.052462030520538</v>
+        <v>0.9925951506885987</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031365250087661</v>
+        <v>1.045734455272931</v>
       </c>
       <c r="J8">
-        <v>1.040770977104939</v>
+        <v>0.9886223730644325</v>
       </c>
       <c r="K8">
-        <v>1.03224046058015</v>
+        <v>1.040143041880415</v>
       </c>
       <c r="L8">
-        <v>1.046479750327819</v>
+        <v>0.9961481699905143</v>
       </c>
       <c r="M8">
-        <v>1.055148325613929</v>
+        <v>1.003876368495206</v>
       </c>
       <c r="N8">
-        <v>1.017271760069284</v>
+        <v>0.9985484195622891</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03169241042364</v>
+        <v>0.943488513864419</v>
       </c>
       <c r="D9">
-        <v>1.028578903965162</v>
+        <v>1.024592627120058</v>
       </c>
       <c r="E9">
-        <v>1.040159105992702</v>
+        <v>0.9655525163237337</v>
       </c>
       <c r="F9">
-        <v>1.048699284259999</v>
+        <v>0.9725592091269369</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031196234843219</v>
+        <v>1.043884197745027</v>
       </c>
       <c r="J9">
-        <v>1.037518826077261</v>
+        <v>0.9712077709570985</v>
       </c>
       <c r="K9">
-        <v>1.031765881887206</v>
+        <v>1.037298920272707</v>
       </c>
       <c r="L9">
-        <v>1.04330817565782</v>
+        <v>0.9792303507756939</v>
       </c>
       <c r="M9">
-        <v>1.051820984343072</v>
+        <v>0.9861137574541393</v>
       </c>
       <c r="N9">
-        <v>1.016133564133688</v>
+        <v>0.9922302634532492</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028955126326753</v>
+        <v>0.9269785242869136</v>
       </c>
       <c r="D10">
-        <v>1.027969141535362</v>
+        <v>1.021248885586085</v>
       </c>
       <c r="E10">
-        <v>1.03773996518119</v>
+        <v>0.9515201745899475</v>
       </c>
       <c r="F10">
-        <v>1.046177226014938</v>
+        <v>0.957923850826179</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031074480267779</v>
+        <v>1.042488702824666</v>
       </c>
       <c r="J10">
-        <v>1.035335991767315</v>
+        <v>0.9584219576128356</v>
       </c>
       <c r="K10">
-        <v>1.031443680964606</v>
+        <v>1.035244798472565</v>
       </c>
       <c r="L10">
-        <v>1.041179358562246</v>
+        <v>0.9668236209565655</v>
       </c>
       <c r="M10">
-        <v>1.049586852339097</v>
+        <v>0.9730967613576279</v>
       </c>
       <c r="N10">
-        <v>1.015366531946505</v>
+        <v>0.9875832415935782</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027766372494171</v>
+        <v>0.9193847517411482</v>
       </c>
       <c r="D11">
-        <v>1.027704660988068</v>
+        <v>1.019754673204539</v>
       </c>
       <c r="E11">
-        <v>1.036689431373512</v>
+        <v>0.9450862333419021</v>
       </c>
       <c r="F11">
-        <v>1.045081762372516</v>
+        <v>0.9512153635706698</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031019604969636</v>
+        <v>1.041841326693053</v>
       </c>
       <c r="J11">
-        <v>1.034387144089246</v>
+        <v>0.9525433363864384</v>
       </c>
       <c r="K11">
-        <v>1.031302791644956</v>
+        <v>1.03431341944922</v>
       </c>
       <c r="L11">
-        <v>1.040253980972282</v>
+        <v>0.9611237681507618</v>
       </c>
       <c r="M11">
-        <v>1.048615521645865</v>
+        <v>0.9671199074682605</v>
       </c>
       <c r="N11">
-        <v>1.015032391157962</v>
+        <v>0.9854458753605462</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027324273891058</v>
+        <v>0.9164882800281048</v>
       </c>
       <c r="D12">
-        <v>1.027606354783216</v>
+        <v>1.019192185443439</v>
       </c>
       <c r="E12">
-        <v>1.036298746798029</v>
+        <v>0.9426356601335368</v>
       </c>
       <c r="F12">
-        <v>1.044674333623874</v>
+        <v>0.9486606123579557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030998897942262</v>
+        <v>1.041593895344315</v>
       </c>
       <c r="J12">
-        <v>1.034034135010395</v>
+        <v>0.9503016803106804</v>
       </c>
       <c r="K12">
-        <v>1.031250253087389</v>
+        <v>1.033960704464808</v>
       </c>
       <c r="L12">
-        <v>1.03990970255773</v>
+        <v>0.958951061168549</v>
       </c>
       <c r="M12">
-        <v>1.048254121288018</v>
+        <v>0.9648422328221878</v>
       </c>
       <c r="N12">
-        <v>1.01490796956697</v>
+        <v>0.9846308488486869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027419130380977</v>
+        <v>0.9171131767702597</v>
       </c>
       <c r="D13">
-        <v>1.027627444782092</v>
+        <v>1.019313188141775</v>
       </c>
       <c r="E13">
-        <v>1.036382571445489</v>
+        <v>0.9431641904783983</v>
       </c>
       <c r="F13">
-        <v>1.044761752456881</v>
+        <v>0.9492115919976947</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031003354329884</v>
+        <v>1.041647294323776</v>
       </c>
       <c r="J13">
-        <v>1.034109882441538</v>
+        <v>0.9507852719676877</v>
       </c>
       <c r="K13">
-        <v>1.031261532100579</v>
+        <v>1.034036677184864</v>
       </c>
       <c r="L13">
-        <v>1.039983576638822</v>
+        <v>0.9594197413537476</v>
       </c>
       <c r="M13">
-        <v>1.04833167048139</v>
+        <v>0.9653335258003164</v>
       </c>
       <c r="N13">
-        <v>1.01493467238154</v>
+        <v>0.9848066721044678</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027729839656846</v>
+        <v>0.9191469330761366</v>
       </c>
       <c r="D14">
-        <v>1.027696536313468</v>
+        <v>1.019708333434761</v>
       </c>
       <c r="E14">
-        <v>1.036657146926726</v>
+        <v>0.9448849518783557</v>
       </c>
       <c r="F14">
-        <v>1.045048094975385</v>
+        <v>0.9510055167403604</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031017899928756</v>
+        <v>1.041821019216281</v>
       </c>
       <c r="J14">
-        <v>1.034357975852198</v>
+        <v>0.9523592681305101</v>
       </c>
       <c r="K14">
-        <v>1.031298452990928</v>
+        <v>1.03428440475932</v>
       </c>
       <c r="L14">
-        <v>1.040225534148502</v>
+        <v>0.9609453450148561</v>
       </c>
       <c r="M14">
-        <v>1.048585660597373</v>
+        <v>0.9669328510718824</v>
       </c>
       <c r="N14">
-        <v>1.015022112717112</v>
+        <v>0.9853789506382381</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027921205470839</v>
+        <v>0.9203896542443948</v>
       </c>
       <c r="D15">
-        <v>1.02773909712811</v>
+        <v>1.019950788903114</v>
       </c>
       <c r="E15">
-        <v>1.03682625929189</v>
+        <v>0.9459368929837468</v>
       </c>
       <c r="F15">
-        <v>1.045224450073966</v>
+        <v>0.9521022388386523</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031026819027287</v>
+        <v>1.041927117500616</v>
       </c>
       <c r="J15">
-        <v>1.034510759126319</v>
+        <v>0.9533211430801009</v>
       </c>
       <c r="K15">
-        <v>1.031321173887804</v>
+        <v>1.034436127071565</v>
       </c>
       <c r="L15">
-        <v>1.04037453861452</v>
+        <v>0.9618777528921096</v>
       </c>
       <c r="M15">
-        <v>1.048742071732297</v>
+        <v>0.9679104007567048</v>
       </c>
       <c r="N15">
-        <v>1.015075946794147</v>
+        <v>0.9857286761214198</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029033944912591</v>
+        <v>0.9274723980499666</v>
       </c>
       <c r="D16">
-        <v>1.027986684869852</v>
+        <v>1.021347033611744</v>
       </c>
       <c r="E16">
-        <v>1.037809620593889</v>
+        <v>0.9519390698431551</v>
       </c>
       <c r="F16">
-        <v>1.04624985554159</v>
+        <v>0.9583606689421803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031078076748075</v>
+        <v>1.042530718836992</v>
       </c>
       <c r="J16">
-        <v>1.035398885230365</v>
+        <v>0.9588043512456659</v>
       </c>
       <c r="K16">
-        <v>1.031453002412254</v>
+        <v>1.035305690160993</v>
       </c>
       <c r="L16">
-        <v>1.041240696149573</v>
+        <v>0.967194486640003</v>
       </c>
       <c r="M16">
-        <v>1.049651232271605</v>
+        <v>0.9734857288337423</v>
       </c>
       <c r="N16">
-        <v>1.015388665003065</v>
+        <v>0.9877222669328981</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02973098954622</v>
+        <v>0.9317902997563676</v>
       </c>
       <c r="D17">
-        <v>1.02814187063219</v>
+        <v>1.02221011936086</v>
       </c>
       <c r="E17">
-        <v>1.038425635902303</v>
+        <v>0.9556037502151986</v>
       </c>
       <c r="F17">
-        <v>1.046892145899511</v>
+        <v>0.9621823742871229</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031109652355675</v>
+        <v>1.042897479488466</v>
       </c>
       <c r="J17">
-        <v>1.035954991921671</v>
+        <v>0.9621478662243362</v>
       </c>
       <c r="K17">
-        <v>1.031535327386651</v>
+        <v>1.035839617762146</v>
       </c>
       <c r="L17">
-        <v>1.041783044570342</v>
+        <v>0.970437716819026</v>
       </c>
       <c r="M17">
-        <v>1.050220461233256</v>
+        <v>0.9768876482937172</v>
       </c>
       <c r="N17">
-        <v>1.015584283209622</v>
+        <v>0.9889377812833129</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030137228203359</v>
+        <v>0.9342666261539293</v>
       </c>
       <c r="D18">
-        <v>1.028232344425954</v>
+        <v>1.022709108889289</v>
       </c>
       <c r="E18">
-        <v>1.038784655847776</v>
+        <v>0.9577073015670613</v>
       </c>
       <c r="F18">
-        <v>1.04726645634995</v>
+        <v>0.9643762329209935</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031127861982604</v>
+        <v>1.0431072818104</v>
       </c>
       <c r="J18">
-        <v>1.03627900678409</v>
+        <v>0.964065565861018</v>
       </c>
       <c r="K18">
-        <v>1.031583213531832</v>
+        <v>1.036147037903588</v>
       </c>
       <c r="L18">
-        <v>1.04209904215984</v>
+        <v>0.9722983058956309</v>
       </c>
       <c r="M18">
-        <v>1.050552103927997</v>
+        <v>0.9788395799283766</v>
       </c>
       <c r="N18">
-        <v>1.015698190310197</v>
+        <v>0.9896348690380667</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030275688688082</v>
+        <v>0.9351040716589609</v>
       </c>
       <c r="D19">
-        <v>1.028263186248177</v>
+        <v>1.022878513434692</v>
       </c>
       <c r="E19">
-        <v>1.038907023382601</v>
+        <v>0.9584189829759474</v>
       </c>
       <c r="F19">
-        <v>1.047394031574265</v>
+        <v>0.9651184942320308</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031134035737671</v>
+        <v>1.043178133116242</v>
       </c>
       <c r="J19">
-        <v>1.036389428066242</v>
+        <v>0.9647141188533264</v>
       </c>
       <c r="K19">
-        <v>1.03159951896064</v>
+        <v>1.036251192618324</v>
       </c>
       <c r="L19">
-        <v>1.042206731040914</v>
+        <v>0.9729276109007227</v>
       </c>
       <c r="M19">
-        <v>1.050665121647611</v>
+        <v>0.9794998282464243</v>
       </c>
       <c r="N19">
-        <v>1.015736996976777</v>
+        <v>0.9898706025988444</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029656238104468</v>
+        <v>0.931331457536998</v>
       </c>
       <c r="D20">
-        <v>1.028125225152969</v>
+        <v>1.022117980432619</v>
       </c>
       <c r="E20">
-        <v>1.038359573530083</v>
+        <v>0.9552141271117551</v>
       </c>
       <c r="F20">
-        <v>1.046823268114908</v>
+        <v>0.9617760377824925</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031106286096164</v>
+        <v>1.04285855925513</v>
       </c>
       <c r="J20">
-        <v>1.035895363525731</v>
+        <v>0.9617925461146212</v>
       </c>
       <c r="K20">
-        <v>1.031526508410133</v>
+        <v>1.035782750307629</v>
       </c>
       <c r="L20">
-        <v>1.041724891505313</v>
+        <v>0.9700930108790647</v>
       </c>
       <c r="M20">
-        <v>1.05015942764409</v>
+        <v>0.9765260435858798</v>
       </c>
       <c r="N20">
-        <v>1.015563315295731</v>
+        <v>0.9888086144124014</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027638358639753</v>
+        <v>0.9185502160313064</v>
       </c>
       <c r="D21">
-        <v>1.027676192402007</v>
+        <v>1.019592183733119</v>
       </c>
       <c r="E21">
-        <v>1.036576304368801</v>
+        <v>0.9443799692889727</v>
       </c>
       <c r="F21">
-        <v>1.044963788845046</v>
+        <v>0.9504790516867022</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031013625555041</v>
+        <v>1.041770058269935</v>
       </c>
       <c r="J21">
-        <v>1.034284934231095</v>
+        <v>0.9518974284640953</v>
       </c>
       <c r="K21">
-        <v>1.031287586391663</v>
+        <v>1.034211645858847</v>
       </c>
       <c r="L21">
-        <v>1.040154299036972</v>
+        <v>0.9604976822601027</v>
       </c>
       <c r="M21">
-        <v>1.048510883645306</v>
+        <v>0.9664635379065627</v>
       </c>
       <c r="N21">
-        <v>1.014996372225778</v>
+        <v>0.9852110324466139</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026366489979174</v>
+        <v>0.9100697228400486</v>
       </c>
       <c r="D22">
-        <v>1.027393484345619</v>
+        <v>1.017960572255413</v>
       </c>
       <c r="E22">
-        <v>1.035452368410141</v>
+        <v>0.9372122978064329</v>
       </c>
       <c r="F22">
-        <v>1.043791616879112</v>
+        <v>0.943007543713803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030953492124369</v>
+        <v>1.041045052295666</v>
       </c>
       <c r="J22">
-        <v>1.033269118573119</v>
+        <v>0.9453356722862651</v>
       </c>
       <c r="K22">
-        <v>1.031136175051535</v>
+        <v>1.033184430363074</v>
       </c>
       <c r="L22">
-        <v>1.039163604980436</v>
+        <v>0.9541393802079409</v>
       </c>
       <c r="M22">
-        <v>1.047470872130625</v>
+        <v>0.9597993850796621</v>
       </c>
       <c r="N22">
-        <v>1.01463813504079</v>
+        <v>0.982825444604026</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027041036019412</v>
+        <v>0.9146110007842631</v>
       </c>
       <c r="D23">
-        <v>1.027543389189893</v>
+        <v>1.018829841069019</v>
       </c>
       <c r="E23">
-        <v>1.036048451147053</v>
+        <v>0.9410484341708478</v>
       </c>
       <c r="F23">
-        <v>1.044413300826365</v>
+        <v>0.9470060350724248</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030985547694333</v>
+        <v>1.041433430441043</v>
       </c>
       <c r="J23">
-        <v>1.033807936813946</v>
+        <v>0.9488490153947167</v>
       </c>
       <c r="K23">
-        <v>1.031216553865276</v>
+        <v>1.033732887607022</v>
       </c>
       <c r="L23">
-        <v>1.039689098454886</v>
+        <v>0.9575433127645833</v>
       </c>
       <c r="M23">
-        <v>1.048022538809366</v>
+        <v>0.9633666646573323</v>
       </c>
       <c r="N23">
-        <v>1.014828213436907</v>
+        <v>0.9841027021418577</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029690016100355</v>
+        <v>0.93153891843467</v>
       </c>
       <c r="D24">
-        <v>1.028132746663079</v>
+        <v>1.022159627713199</v>
       </c>
       <c r="E24">
-        <v>1.038389425172652</v>
+        <v>0.9553902855615028</v>
       </c>
       <c r="F24">
-        <v>1.04685439203021</v>
+        <v>0.9619597522494979</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031107807806412</v>
+        <v>1.042876158338441</v>
       </c>
       <c r="J24">
-        <v>1.035922308121047</v>
+        <v>0.9619531999713099</v>
       </c>
       <c r="K24">
-        <v>1.031530493736001</v>
+        <v>1.035808458623432</v>
       </c>
       <c r="L24">
-        <v>1.041751169438359</v>
+        <v>0.9702488643985606</v>
       </c>
       <c r="M24">
-        <v>1.050187007266663</v>
+        <v>0.9766895366839501</v>
       </c>
       <c r="N24">
-        <v>1.015572790391942</v>
+        <v>0.9888670159694541</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032750903629794</v>
+        <v>0.9495450739867378</v>
       </c>
       <c r="D25">
-        <v>1.028814954861362</v>
+        <v>1.025850886403038</v>
       </c>
       <c r="E25">
-        <v>1.041094615144331</v>
+        <v>0.9707145511626412</v>
       </c>
       <c r="F25">
-        <v>1.049674379042965</v>
+        <v>0.9779441525616372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031241529135349</v>
+        <v>1.044389696449592</v>
       </c>
       <c r="J25">
-        <v>1.03836212856619</v>
+        <v>0.9758985041491551</v>
       </c>
       <c r="K25">
-        <v>1.031889599187807</v>
+        <v>1.03806072994541</v>
       </c>
       <c r="L25">
-        <v>1.044130597398971</v>
+        <v>0.9837851608448481</v>
       </c>
       <c r="M25">
-        <v>1.052683934115078</v>
+        <v>0.9908947868802738</v>
       </c>
       <c r="N25">
-        <v>1.016429248683781</v>
+        <v>0.9939338225830239</v>
       </c>
     </row>
   </sheetData>
